--- a/05_其他/阶段面试题.xlsx
+++ b/05_其他/阶段面试题.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>mybatis</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -34,55 +34,28 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>1.MyBatis与Hibernate有哪些不同？</t>
+    <t>1.通常一个Xml映射文件，都会写一个Dao接口与之对应，请问，这个Dao接口的工作原理是什么？Dao接口里的方法，参数不同时，方法能重载吗？</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>2.当实体类中的属性名和表中的字段名不一样 ，怎么办 ？</t>
+    <t>2.Mybatis映射文件中，如果A标签通过include引用了B标签的内容，请问，B标签能否定义在A标签的后面，还是说必须定义在A标签的前面？</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>3.模糊查询like语句该怎么写?</t>
+    <t>Dao接口，就是人们常说的Mapper接口，接口的全限名，就是映射文件中的namespace的值，接口的方法名，就是映射文件中MappedStatement的id值，接口方法内的参数，就是传递给sql的参数。Mapper接口是没有实现类的，当调用接口方法时，接口全限名+方法名拼接字符串作为key值，可唯一定位一个MappedStatement，举例：com.mybatis3.mappers.StudentDao.findStudentById，可以唯一找到namespace为com.mybatis3.mappers.StudentDao下面id = findStudentById的MappedStatement。在Mybatis中，每一个Dao接口里的方法，是不能重载的，因为是全限名+方法名的保存和寻找策略。Dao接口的工作原理是JDK动态代理，Mybatis运行时会使用JDK动态代理为Dao接口生成代理proxy对象，代理对象proxy会拦截接口方法，转而执行MappedStatement所代表的sql，然后将sql执行结果返回。</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>4. #{}和${}的区别是什么？</t>
+    <t>虽然Mybatis解析Xml映射文件是按照顺序解析的，但是，被引用的B标签依然可以定义在任何地方，Mybatis都可以正确识别。
+原理是，Mybatis解析A标签，发现A标签引用了B标签，但是B标签尚未解析到，尚不存在，此时，Mybatis会将A标签标记为未解析状态，然后继续解析余下的标签，包含B标签，待所有标签解析完毕，Mybatis会重新解析那些被标记为未解析的标签，此时再解析A标签时，B标签已经存在，A标签也就可以正常解析完成了。</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>5. 通常一个Xml映射文件，都会写一个Dao接口与之对应，请问，这个Dao接口的工作原理是什么？Dao接口里的方法，参数不同时，方法能重载吗？</t>
+    <t>3.简述Mybatis的Xml映射文件和Mybatis内部数据结构之间的映射关系？</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>6. Mybatis是如何进行分页的？分页插件的原理是什么？</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>7. Mybatis是如何将sql执行结果封装为目标对象并返回的？都有哪些映射形式？</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>8. Xml映射文件中，除了常见的select|insert|update|delete标签之外，还有哪些标签？</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>11. Mybatis是否支持延迟加载？如果支持，它的实现原理是什么？</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>12. Mybatis映射文件中，如果A标签通过include引用了B标签的内容，请问，B标签能否定义在A标签的后面，还是说必须定义在A标签的前面？</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>13. 简述Mybatis的Xml映射文件和Mybatis内部数据结构之间的映射关系？</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>9. 简述Mybatis的插件运行原理，以及如何编写一个插件？</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>10. 简述一级、二级缓存？</t>
+    <t>4.当实体类中的属性名和表中的字段名不一样 ，怎么办 ？</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -90,7 +63,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -151,6 +124,13 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
@@ -189,7 +169,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -226,6 +206,12 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -250,13 +236,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>128</xdr:row>
+      <xdr:row>122</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>129</xdr:row>
+      <xdr:row>123</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -264,7 +250,7 @@
         <xdr:cNvPr id="9" name="AutoShape 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5B4830F5-EDFE-4ED7-9D5C-D7A635345838}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5B4830F5-EDFE-4ED7-9D5C-D7A635345838}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -560,230 +546,214 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C2:G187"/>
+  <dimension ref="C2:G181"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.21875" defaultRowHeight="22.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="3.21875" style="3"/>
-    <col min="3" max="3" width="8.5546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.109375" style="3" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="3.21875" style="2"/>
     <col min="5" max="5" width="3.21875" style="3"/>
-    <col min="6" max="6" width="3.21875" style="4"/>
+    <col min="6" max="6" width="4" style="4" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="139.44140625" style="9" customWidth="1"/>
     <col min="8" max="16384" width="3.21875" style="3"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:6" ht="32.4" x14ac:dyDescent="0.25">
+    <row r="2" spans="3:7" ht="32.4" x14ac:dyDescent="0.25">
       <c r="C2" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C4" s="5">
         <v>43976</v>
       </c>
     </row>
-    <row r="5" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D5" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="3:7" x14ac:dyDescent="0.25">
       <c r="F6" s="4" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="F7" s="4" t="s">
+    <row r="7" spans="3:7" ht="97.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F7" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="G7" s="13"/>
+    </row>
+    <row r="8" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="F8" s="4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="F8" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="F9" s="4" t="s">
+    <row r="9" spans="3:7" ht="67.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F9" s="13" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="G9" s="13"/>
+    </row>
+    <row r="10" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C10" s="14">
+        <v>43977</v>
+      </c>
       <c r="F10" s="4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="F11" s="4" t="s">
+    <row r="11" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="F11" s="13"/>
+      <c r="G11" s="13"/>
+    </row>
+    <row r="12" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="F12" s="4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="F12" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="13" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="F13" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="14" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="F14" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="15" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="F15" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="16" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="F16" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="17" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F17" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="18" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F18" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="21" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F21" s="6"/>
-    </row>
-    <row r="22" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="G22" s="7"/>
-    </row>
-    <row r="25" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F25" s="8"/>
-    </row>
-    <row r="26" spans="6:7" ht="334.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="28" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F28" s="10"/>
-    </row>
-    <row r="31" spans="6:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="32" spans="6:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="33" ht="20.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="34" ht="162.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="49" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C49" s="5"/>
-    </row>
-    <row r="54" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="G54" s="11"/>
-    </row>
-    <row r="58" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="F13" s="13"/>
+      <c r="G13" s="13"/>
+    </row>
+    <row r="15" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="F15" s="6"/>
+    </row>
+    <row r="16" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="G16" s="7"/>
+    </row>
+    <row r="19" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F19" s="8"/>
+    </row>
+    <row r="20" spans="6:6" ht="334.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="22" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F22" s="10"/>
+    </row>
+    <row r="25" spans="6:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="26" spans="6:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="27" spans="6:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="28" spans="6:6" ht="162.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="43" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C43" s="5"/>
+    </row>
+    <row r="48" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="G48" s="11"/>
+    </row>
+    <row r="52" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C52" s="5"/>
+    </row>
+    <row r="58" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C58" s="5"/>
     </row>
-    <row r="64" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C64" s="5"/>
-    </row>
-    <row r="72" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C72" s="5"/>
-    </row>
-    <row r="84" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="66" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C66" s="5"/>
+    </row>
+    <row r="78" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C78" s="5"/>
+    </row>
+    <row r="84" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C84" s="5"/>
     </row>
-    <row r="90" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="90" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C90" s="5"/>
     </row>
-    <row r="96" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="94" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="G94" s="11"/>
+    </row>
+    <row r="96" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C96" s="5"/>
     </row>
-    <row r="100" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="G100" s="11"/>
-    </row>
-    <row r="102" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="101" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C101" s="5"/>
+    </row>
+    <row r="102" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C102" s="5"/>
     </row>
-    <row r="107" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="103" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C103" s="5"/>
+    </row>
+    <row r="104" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C104" s="5"/>
+    </row>
+    <row r="105" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C105" s="5"/>
+    </row>
+    <row r="106" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C106" s="5"/>
+    </row>
+    <row r="107" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C107" s="5"/>
     </row>
-    <row r="108" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="108" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C108" s="5"/>
     </row>
-    <row r="109" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="109" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C109" s="5"/>
     </row>
-    <row r="110" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="110" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C110" s="5"/>
     </row>
-    <row r="111" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="111" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C111" s="5"/>
     </row>
-    <row r="112" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="112" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C112" s="5"/>
     </row>
     <row r="113" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C113" s="5"/>
     </row>
-    <row r="114" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C114" s="5"/>
-    </row>
-    <row r="115" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C115" s="5"/>
-    </row>
     <row r="116" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C116" s="5"/>
     </row>
-    <row r="117" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C117" s="5"/>
-    </row>
-    <row r="118" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C118" s="5"/>
-    </row>
-    <row r="119" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C119" s="5"/>
-    </row>
-    <row r="122" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C122" s="5"/>
-    </row>
-    <row r="129" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C129"/>
+    <row r="123" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C123"/>
+    </row>
+    <row r="132" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C132" s="5"/>
+    </row>
+    <row r="133" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="G133" s="12"/>
     </row>
     <row r="138" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C138" s="5"/>
     </row>
-    <row r="139" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="G139" s="12"/>
+    <row r="142" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="G142" s="12"/>
+    </row>
+    <row r="143" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="G143" s="12"/>
     </row>
     <row r="144" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C144" s="5"/>
-    </row>
-    <row r="148" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="G148" s="12"/>
-    </row>
-    <row r="149" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="G149" s="12"/>
-    </row>
-    <row r="150" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="G150" s="12"/>
-    </row>
-    <row r="152" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="G144" s="12"/>
+    </row>
+    <row r="146" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C146" s="5"/>
+    </row>
+    <row r="149" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C149" s="5"/>
+    </row>
+    <row r="152" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C152" s="5"/>
     </row>
-    <row r="155" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C155" s="5"/>
-    </row>
-    <row r="158" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="158" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C158" s="5"/>
     </row>
-    <row r="164" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C164" s="5"/>
+    <row r="161" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C161" s="5"/>
+    </row>
+    <row r="165" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="G165" s="12"/>
     </row>
     <row r="167" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C167" s="5"/>
     </row>
-    <row r="171" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="G171" s="12"/>
+    <row r="170" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C170" s="5"/>
     </row>
     <row r="173" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C173" s="5"/>
@@ -794,16 +764,16 @@
     <row r="179" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C179" s="5"/>
     </row>
-    <row r="182" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C182" s="5"/>
-    </row>
-    <row r="185" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C185" s="5"/>
-    </row>
-    <row r="187" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="G187"/>
+    <row r="181" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="G181"/>
     </row>
   </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="F13:G13"/>
+  </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
